--- a/SimpleProjects/Module/ParkingArea/2.Specification/Function_List_Example.xlsx
+++ b/SimpleProjects/Module/ParkingArea/2.Specification/Function_List_Example.xlsx
@@ -14,12 +14,17 @@
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Document_Check" sheetId="3" r:id="rId2"/>
-    <sheet name="ListOfFunction" sheetId="6" r:id="rId3"/>
+    <sheet name="Function list" sheetId="7" r:id="rId3"/>
+    <sheet name="FLow Chart" sheetId="8" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Document_Check!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'FLow Chart'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Function list'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Index!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">ListOfFunction!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Writer</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -77,10 +82,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Create Document</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Rick</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,7 +94,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -101,20 +122,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Kinds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Function 
 Number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -211,7 +220,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +536,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,9 +712,63 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,61 +787,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,29 +844,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -904,6 +949,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Index"/>
+      <sheetName val="Document_Check"/>
+      <sheetName val="Function list"/>
+      <sheetName val="FLow Chart"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Document_Name</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AK18">
+            <v>43956</v>
+          </cell>
+          <cell r="AQ18" t="str">
+            <v>Rick</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,7 +1577,7 @@
     <row r="10" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -1526,7 +1604,7 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC10" s="59"/>
       <c r="AD10" s="59"/>
@@ -1696,9 +1774,7 @@
       <c r="AV17" s="48"/>
     </row>
     <row r="18" spans="37:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AK18" s="51">
-        <v>43226</v>
-      </c>
+      <c r="AK18" s="51"/>
       <c r="AL18" s="51"/>
       <c r="AM18" s="51"/>
       <c r="AN18" s="51"/>
@@ -1764,7 +1840,9 @@
   </sheetPr>
   <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1780,52 +1858,52 @@
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="63" t="str">
         <f>Index!$C$10</f>
         <v>Document_Name</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="77" t="str">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="str">
         <f>Index!$AB$10</f>
         <v>All List of Function</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="79" t="s">
-        <v>20</v>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="63" t="s">
+        <v>15</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="82">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="68">
         <f>Index!$AK$18</f>
-        <v>43226</v>
+        <v>0</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="79" t="s">
-        <v>21</v>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="63" t="s">
+        <v>16</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="77" t="str">
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="61" t="str">
         <f>Index!$AQ$18</f>
         <v>Rick</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
       <c r="AF2" s="22"/>
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
@@ -1836,36 +1914,36 @@
       <c r="AM2" s="21"/>
     </row>
     <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
       <c r="AJ3" s="24"/>
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
@@ -1904,52 +1982,52 @@
     </row>
     <row r="5" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="66" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66" t="s">
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66" t="s">
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="67"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="85"/>
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
@@ -1968,50 +2046,46 @@
     </row>
     <row r="6" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="75">
+      <c r="B6" s="78">
         <v>1</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="81">
-        <v>43226</v>
+      <c r="C6" s="79"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71" t="s">
+        <v>7</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="69" t="s">
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="70"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="86"/>
       <c r="AJ6" s="25"/>
       <c r="AL6" s="24"/>
       <c r="AM6" s="24"/>
@@ -2028,42 +2102,42 @@
     </row>
     <row r="7" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="73">
+      <c r="B7" s="76">
         <v>2</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="65"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="83"/>
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
       <c r="AL7" s="25"/>
@@ -2082,42 +2156,42 @@
     </row>
     <row r="8" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="73">
+      <c r="B8" s="76">
         <v>3</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="65"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="83"/>
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
       <c r="AL8" s="25"/>
@@ -2136,42 +2210,42 @@
     </row>
     <row r="9" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="73">
+      <c r="B9" s="76">
         <v>4</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="65"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="83"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
       <c r="AL9" s="25"/>
@@ -2190,42 +2264,42 @@
     </row>
     <row r="10" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="85">
+      <c r="B10" s="72">
         <v>5</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="62"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="80"/>
       <c r="AJ10" s="27"/>
       <c r="AK10" s="27"/>
       <c r="AL10" s="27"/>
@@ -2636,6 +2710,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="H8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="H5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="H7:AA7"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="I2:O3"/>
@@ -2652,26 +2746,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="AB7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="H8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="H5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="H9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="H7:AA7"/>
-    <mergeCell ref="AF6:AI6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2685,11 +2759,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
+  <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BA31"/>
+  <dimension ref="B1:BA30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2707,52 +2781,52 @@
       <c r="C1" s="35"/>
     </row>
     <row r="2" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79" t="str">
-        <f>Index!$C$10</f>
+      <c r="B2" s="63" t="str">
+        <f>[1]Index!$C$10</f>
         <v>Document_Name</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="77" t="str">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="str">
         <f>Index!$AB$10</f>
         <v>All List of Function</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="79" t="s">
-        <v>1</v>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="63" t="s">
+        <v>17</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="82">
-        <f>Index!$AK$18</f>
-        <v>43226</v>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="68">
+        <f>[1]Index!$AK$18</f>
+        <v>43956</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="79" t="s">
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="77" t="str">
-        <f>Index!$AQ$18</f>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="61" t="str">
+        <f>[1]Index!$AQ$18</f>
         <v>Rick</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
       <c r="AH2" s="37"/>
@@ -2762,36 +2836,36 @@
       <c r="AL2" s="37"/>
     </row>
     <row r="3" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
       <c r="AJ3" s="38"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
@@ -2804,51 +2878,51 @@
       <c r="AL4" s="37"/>
     </row>
     <row r="5" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97" t="s">
-        <v>15</v>
+      <c r="B5" s="87" t="s">
+        <v>18</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="98" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="101" t="s">
-        <v>18</v>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91" t="s">
+        <v>20</v>
       </c>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="103"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="93"/>
       <c r="AK5" s="43"/>
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
@@ -2868,41 +2942,41 @@
       <c r="BA5" s="42"/>
     </row>
     <row r="6" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="104"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="94"/>
       <c r="AK6" s="43"/>
       <c r="AL6" s="43"/>
       <c r="AM6" s="43"/>
@@ -2922,43 +2996,44 @@
       <c r="BA6" s="42"/>
     </row>
     <row r="7" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87">
+      <c r="B7" s="95">
+        <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="91"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="99"/>
       <c r="AK7" s="41"/>
       <c r="AL7" s="41"/>
       <c r="AM7" s="41"/>
@@ -2973,41 +3048,44 @@
       <c r="AV7" s="41"/>
     </row>
     <row r="8" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="91"/>
+      <c r="B8" s="95">
+        <f>ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="99"/>
       <c r="AK8" s="41"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
@@ -3022,43 +3100,41 @@
       <c r="AV8" s="41"/>
     </row>
     <row r="9" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="87">
-        <v>2</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="91"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="99"/>
       <c r="AK9" s="41"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
@@ -3073,41 +3149,41 @@
       <c r="AV9" s="41"/>
     </row>
     <row r="10" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="99"/>
       <c r="AK10" s="41"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
@@ -3122,43 +3198,41 @@
       <c r="AV10" s="41"/>
     </row>
     <row r="11" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="87">
-        <v>3</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="91"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="99"/>
       <c r="AK11" s="41"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
@@ -3173,41 +3247,1452 @@
       <c r="AV11" s="41"/>
     </row>
     <row r="12" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="91"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+    </row>
+    <row r="13" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+    </row>
+    <row r="14" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+    </row>
+    <row r="15" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+    </row>
+    <row r="16" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+    </row>
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="99"/>
+    </row>
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="99"/>
+    </row>
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="99"/>
+    </row>
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="99"/>
+    </row>
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="99"/>
+    </row>
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+    </row>
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="99"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+    </row>
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="99"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+    </row>
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="99"/>
+      <c r="AV26" s="40"/>
+    </row>
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="99"/>
+    </row>
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="99"/>
+    </row>
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="99"/>
+    </row>
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="131">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="T30:AJ30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="T28:AJ28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:AJ29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:AJ26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="T27:AJ27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:AJ24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:AJ25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:AJ22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:AJ23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T20:AJ20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:AJ21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:AJ18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:AJ19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:AJ16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:AJ17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:AJ14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:AJ15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:AJ12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:AJ13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:AJ10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:AJ11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:AJ9"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="T5:AJ6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:AJ7"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="I2:O3"/>
+    <mergeCell ref="P2:S3"/>
+    <mergeCell ref="T2:Y3"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="AC2:AE3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.25" footer="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:BA33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3" style="36"/>
+    <col min="3" max="3" width="2.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="3" style="36"/>
+    <col min="5" max="5" width="3" style="36" customWidth="1"/>
+    <col min="6" max="6" width="3" style="39"/>
+    <col min="7" max="16384" width="3" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:53" s="34" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="str">
+        <f>[1]Index!$C$10</f>
+        <v>Document_Name</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="61" t="str">
+        <f>Index!$AB$10</f>
+        <v>All List of Function</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="68">
+        <f>[1]Index!$AK$18</f>
+        <v>43956</v>
+      </c>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="61" t="str">
+        <f>[1]Index!$AQ$18</f>
+        <v>Rick</v>
+      </c>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+    </row>
+    <row r="3" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+    </row>
+    <row r="4" spans="2:53" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+    </row>
+    <row r="5" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+    </row>
+    <row r="6" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="108"/>
+      <c r="AH6" s="108"/>
+      <c r="AI6" s="108"/>
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+    </row>
+    <row r="7" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+    </row>
+    <row r="8" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="41"/>
+    </row>
+    <row r="9" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+    </row>
+    <row r="10" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+    </row>
+    <row r="11" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+    </row>
+    <row r="12" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
       <c r="AK12" s="41"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="41"/>
@@ -3222,41 +4707,41 @@
       <c r="AV12" s="41"/>
     </row>
     <row r="13" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="91"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
@@ -3271,41 +4756,41 @@
       <c r="AV13" s="40"/>
     </row>
     <row r="14" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="91"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
       <c r="AM14" s="40"/>
@@ -3320,41 +4805,41 @@
       <c r="AV14" s="40"/>
     </row>
     <row r="15" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="91"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
       <c r="AM15" s="40"/>
@@ -3369,41 +4854,41 @@
       <c r="AV15" s="40"/>
     </row>
     <row r="16" spans="2:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="91"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
       <c r="AM16" s="40"/>
@@ -3418,41 +4903,41 @@
       <c r="AV16" s="40"/>
     </row>
     <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="91"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="111"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
       <c r="AM17" s="40"/>
@@ -3467,41 +4952,41 @@
       <c r="AV17" s="40"/>
     </row>
     <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="91"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
       <c r="AM18" s="40"/>
@@ -3516,643 +5001,724 @@
       <c r="AV18" s="40"/>
     </row>
     <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="91"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
     </row>
     <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="91"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="111"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="111"/>
+      <c r="AJ20" s="111"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
     </row>
     <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="91"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
     </row>
     <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="91"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="111"/>
+      <c r="AJ22" s="111"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
     </row>
     <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="91"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
     </row>
     <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="39"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
     </row>
     <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="91"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
     </row>
     <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="91"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="111"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
       <c r="AT26" s="40"/>
       <c r="AU26" s="40"/>
       <c r="AV26" s="40"/>
     </row>
     <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="91"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
       <c r="AV27" s="40"/>
     </row>
     <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="91"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
     </row>
     <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="91"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="111"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
     </row>
     <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="91"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="40"/>
+      <c r="AV30" s="40"/>
     </row>
     <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="96"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="111"/>
+      <c r="AJ31" s="111"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
+      <c r="AV31" s="40"/>
+    </row>
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="111"/>
+      <c r="AJ32" s="111"/>
+    </row>
+    <row r="33" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="6">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="P2:S3"/>
     <mergeCell ref="T2:Y3"/>
     <mergeCell ref="Z2:AB3"/>
     <mergeCell ref="AC2:AE3"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="T5:AJ6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:AJ11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:AJ7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:AJ9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:AJ15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:AJ13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:AJ19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:AJ17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:AJ23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:AJ21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:AJ25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:AJ24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="T27:AJ27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:AJ26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:AJ29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="T28:AJ28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="T31:AJ31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="T30:AJ30"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:AJ8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:AJ10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:AJ14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:AJ12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:AJ18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:AJ16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:AJ22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:AJ20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
